--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H2">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J2">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N2">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O2">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P2">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q2">
-        <v>7.366862089747332</v>
+        <v>15.94561685373556</v>
       </c>
       <c r="R2">
-        <v>66.30175880772599</v>
+        <v>143.51055168362</v>
       </c>
       <c r="S2">
-        <v>0.05240250130167118</v>
+        <v>0.07196057390642722</v>
       </c>
       <c r="T2">
-        <v>0.05240250130167118</v>
+        <v>0.07196057390642722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H3">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J3">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>212.130093</v>
       </c>
       <c r="O3">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P3">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q3">
-        <v>26.567243557351</v>
+        <v>40.48373189848167</v>
       </c>
       <c r="R3">
-        <v>239.105192016159</v>
+        <v>364.353587086335</v>
       </c>
       <c r="S3">
-        <v>0.188980056655798</v>
+        <v>0.1826980171423219</v>
       </c>
       <c r="T3">
-        <v>0.1889800566557979</v>
+        <v>0.1826980171423219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H4">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J4">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N4">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O4">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P4">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q4">
-        <v>3.602813216105333</v>
+        <v>8.598832490526668</v>
       </c>
       <c r="R4">
-        <v>32.425318944948</v>
+        <v>77.38949241474</v>
       </c>
       <c r="S4">
-        <v>0.02562779402500165</v>
+        <v>0.03880545523070008</v>
       </c>
       <c r="T4">
-        <v>0.02562779402500165</v>
+        <v>0.03880545523070008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.375721</v>
+        <v>0.5725316666666668</v>
       </c>
       <c r="H5">
-        <v>1.127163</v>
+        <v>1.717595</v>
       </c>
       <c r="I5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="J5">
-        <v>0.3470687401563892</v>
+        <v>0.3864899584549088</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N5">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O5">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P5">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q5">
-        <v>11.25478918285733</v>
+        <v>20.61344806599222</v>
       </c>
       <c r="R5">
-        <v>101.293102645716</v>
+        <v>185.52103259393</v>
       </c>
       <c r="S5">
-        <v>0.08005838817391847</v>
+        <v>0.09302591217545962</v>
       </c>
       <c r="T5">
-        <v>0.08005838817391847</v>
+        <v>0.09302591217545962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H6">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J6">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N6">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O6">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P6">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q6">
-        <v>6.008522894940223</v>
+        <v>8.534782581319556</v>
       </c>
       <c r="R6">
-        <v>54.076706054462</v>
+        <v>76.81304323187599</v>
       </c>
       <c r="S6">
-        <v>0.04274026376324158</v>
+        <v>0.03851640600372592</v>
       </c>
       <c r="T6">
-        <v>0.04274026376324158</v>
+        <v>0.03851640600372593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H7">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J7">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>212.130093</v>
       </c>
       <c r="O7">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P7">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q7">
         <v>21.66864116975367</v>
@@ -883,10 +883,10 @@
         <v>195.017770527783</v>
       </c>
       <c r="S7">
-        <v>0.1541349604852461</v>
+        <v>0.09778786663763453</v>
       </c>
       <c r="T7">
-        <v>0.1541349604852461</v>
+        <v>0.09778786663763453</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H8">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J8">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N8">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O8">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P8">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q8">
-        <v>2.938508340652889</v>
+        <v>4.602466397694666</v>
       </c>
       <c r="R8">
-        <v>26.446575065876</v>
+        <v>41.422197579252</v>
       </c>
       <c r="S8">
-        <v>0.02090241208130394</v>
+        <v>0.0207703550386993</v>
       </c>
       <c r="T8">
-        <v>0.02090241208130394</v>
+        <v>0.0207703550386993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>0.3064436666666667</v>
       </c>
       <c r="H9">
-        <v>0.9193310000000001</v>
+        <v>0.919331</v>
       </c>
       <c r="I9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070742</v>
       </c>
       <c r="J9">
-        <v>0.2830744550315381</v>
+        <v>0.2068661122070743</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N9">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O9">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P9">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q9">
-        <v>9.179574377676891</v>
+        <v>11.03320737656822</v>
       </c>
       <c r="R9">
-        <v>82.61616939909202</v>
+        <v>99.298866389114</v>
       </c>
       <c r="S9">
-        <v>0.06529681870174646</v>
+        <v>0.04979148452701448</v>
       </c>
       <c r="T9">
-        <v>0.06529681870174646</v>
+        <v>0.04979148452701449</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H10">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J10">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N10">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O10">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P10">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q10">
-        <v>3.571757853776666</v>
+        <v>15.18298969908978</v>
       </c>
       <c r="R10">
-        <v>32.14582068399</v>
+        <v>136.646907291808</v>
       </c>
       <c r="S10">
-        <v>0.02540688875420572</v>
+        <v>0.06851893296971553</v>
       </c>
       <c r="T10">
-        <v>0.02540688875420572</v>
+        <v>0.06851893296971553</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H11">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J11">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>212.130093</v>
       </c>
       <c r="O11">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P11">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q11">
-        <v>12.880892797115</v>
+        <v>38.54752625962933</v>
       </c>
       <c r="R11">
-        <v>115.928035174035</v>
+        <v>346.9277363366639</v>
       </c>
       <c r="S11">
-        <v>0.09162530713136459</v>
+        <v>0.1739601633326692</v>
       </c>
       <c r="T11">
-        <v>0.09162530713136458</v>
+        <v>0.1739601633326692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H12">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J12">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N12">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O12">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P12">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q12">
-        <v>1.746792086446666</v>
+        <v>8.187578211957332</v>
       </c>
       <c r="R12">
-        <v>15.72112877802</v>
+        <v>73.68820390761599</v>
       </c>
       <c r="S12">
-        <v>0.01242540900978232</v>
+        <v>0.03694951612349708</v>
       </c>
       <c r="T12">
-        <v>0.01242540900978232</v>
+        <v>0.03694951612349709</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.182165</v>
+        <v>0.5451493333333333</v>
       </c>
       <c r="H13">
-        <v>0.546495</v>
+        <v>1.635448</v>
       </c>
       <c r="I13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340403</v>
       </c>
       <c r="J13">
-        <v>0.1682732055184263</v>
+        <v>0.3680053968340404</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N13">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O13">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P13">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q13">
-        <v>5.456784878926666</v>
+        <v>19.62757367867911</v>
       </c>
       <c r="R13">
-        <v>49.11106391033999</v>
+        <v>176.648163108112</v>
       </c>
       <c r="S13">
-        <v>0.03881560062307365</v>
+        <v>0.08857678440815853</v>
       </c>
       <c r="T13">
-        <v>0.03881560062307365</v>
+        <v>0.08857678440815854</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H14">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I14">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J14">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N14">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O14">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P14">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q14">
-        <v>4.278802449572444</v>
+        <v>1.594129993860889</v>
       </c>
       <c r="R14">
-        <v>38.509222046152</v>
+        <v>14.347169944748</v>
       </c>
       <c r="S14">
-        <v>0.03043628999725229</v>
+        <v>0.007194109220854936</v>
       </c>
       <c r="T14">
-        <v>0.03043628999725229</v>
+        <v>0.007194109220854937</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H15">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I15">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J15">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>212.130093</v>
       </c>
       <c r="O15">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P15">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q15">
-        <v>15.43072008498534</v>
+        <v>4.047277184367666</v>
       </c>
       <c r="R15">
-        <v>138.876480764868</v>
+        <v>36.425494659309</v>
       </c>
       <c r="S15">
-        <v>0.1097629247688145</v>
+        <v>0.01826485557861982</v>
       </c>
       <c r="T15">
-        <v>0.1097629247688144</v>
+        <v>0.01826485557861982</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H16">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I16">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J16">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N16">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O16">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P16">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q16">
-        <v>2.092576978721778</v>
+        <v>0.8596504551106666</v>
       </c>
       <c r="R16">
-        <v>18.833192808496</v>
+        <v>7.736854095996</v>
       </c>
       <c r="S16">
-        <v>0.01488507135268988</v>
+        <v>0.003879494953134587</v>
       </c>
       <c r="T16">
-        <v>0.01488507135268988</v>
+        <v>0.003879494953134588</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2182253333333334</v>
+        <v>0.05723766666666667</v>
       </c>
       <c r="H17">
-        <v>0.654676</v>
+        <v>0.171713</v>
       </c>
       <c r="I17">
-        <v>0.2015835992936464</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="J17">
-        <v>0.2015835992936463</v>
+        <v>0.03863853250397663</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N17">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O17">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P17">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q17">
-        <v>6.536978558625779</v>
+        <v>2.060786744113555</v>
       </c>
       <c r="R17">
-        <v>58.83280702763201</v>
+        <v>18.547080697022</v>
       </c>
       <c r="S17">
-        <v>0.04649931317488975</v>
+        <v>0.009300072751367286</v>
       </c>
       <c r="T17">
-        <v>0.04649931317488974</v>
+        <v>0.009300072751367287</v>
       </c>
     </row>
   </sheetData>
